--- a/tests/test_data/invalid.xlsx
+++ b/tests/test_data/invalid.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Point_A</t>
+          <t>Point_1</t>
         </is>
       </c>
       <c r="B2" t="n">
